--- a/natmiOut/OldD2/LR-pairs_lrc2p/Lama3-Sdc2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Lama3-Sdc2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.49132864631282</v>
+        <v>7.794146</v>
       </c>
       <c r="H2">
-        <v>7.49132864631282</v>
+        <v>15.588292</v>
       </c>
       <c r="I2">
-        <v>0.5861937459359113</v>
+        <v>0.5817234556855728</v>
       </c>
       <c r="J2">
-        <v>0.5861937459359113</v>
+        <v>0.4893463528165691</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.997386032128483</v>
+        <v>0.9991829999999999</v>
       </c>
       <c r="N2">
-        <v>0.997386032128483</v>
+        <v>1.998366</v>
       </c>
       <c r="O2">
-        <v>0.01575351394248427</v>
+        <v>0.01488714493203248</v>
       </c>
       <c r="P2">
-        <v>0.01575351394248427</v>
+        <v>0.01137801272088475</v>
       </c>
       <c r="Q2">
-        <v>7.471746553916383</v>
+        <v>7.787778182717999</v>
       </c>
       <c r="R2">
-        <v>7.471746553916383</v>
+        <v>31.151112730872</v>
       </c>
       <c r="S2">
-        <v>0.009234611349598461</v>
+        <v>0.008660201395153895</v>
       </c>
       <c r="T2">
-        <v>0.009234611349598461</v>
+        <v>0.005567789027265482</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.49132864631282</v>
+        <v>7.794146</v>
       </c>
       <c r="H3">
-        <v>7.49132864631282</v>
+        <v>15.588292</v>
       </c>
       <c r="I3">
-        <v>0.5861937459359113</v>
+        <v>0.5817234556855728</v>
       </c>
       <c r="J3">
-        <v>0.5861937459359113</v>
+        <v>0.4893463528165691</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>36.9720630093316</v>
+        <v>39.565288</v>
       </c>
       <c r="N3">
-        <v>36.9720630093316</v>
+        <v>118.695864</v>
       </c>
       <c r="O3">
-        <v>0.5839663794538508</v>
+        <v>0.5894957947979553</v>
       </c>
       <c r="P3">
-        <v>0.5839663794538508</v>
+        <v>0.6758136650185235</v>
       </c>
       <c r="Q3">
-        <v>276.9698747350884</v>
+        <v>308.377631204048</v>
       </c>
       <c r="R3">
-        <v>276.9698747350884</v>
+        <v>1850.265787224288</v>
       </c>
       <c r="S3">
-        <v>0.3423174394726846</v>
+        <v>0.3429235308619799</v>
       </c>
       <c r="T3">
-        <v>0.3423174394726846</v>
+        <v>0.330706952160413</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.49132864631282</v>
+        <v>7.794146</v>
       </c>
       <c r="H4">
-        <v>7.49132864631282</v>
+        <v>15.588292</v>
       </c>
       <c r="I4">
-        <v>0.5861937459359113</v>
+        <v>0.5817234556855728</v>
       </c>
       <c r="J4">
-        <v>0.5861937459359113</v>
+        <v>0.4893463528165691</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.4251159554415</v>
+        <v>0.06171066666666666</v>
       </c>
       <c r="N4">
-        <v>1.4251159554415</v>
+        <v>0.185132</v>
       </c>
       <c r="O4">
-        <v>0.02250942298218628</v>
+        <v>0.0009194468265763251</v>
       </c>
       <c r="P4">
-        <v>0.02250942298218628</v>
+        <v>0.001054078307498645</v>
       </c>
       <c r="Q4">
-        <v>10.67601198131637</v>
+        <v>0.4809819457573333</v>
       </c>
       <c r="R4">
-        <v>10.67601198131637</v>
+        <v>2.885891674544</v>
       </c>
       <c r="S4">
-        <v>0.01319488297678367</v>
+        <v>0.0005348637852751134</v>
       </c>
       <c r="T4">
-        <v>0.01319488297678367</v>
+        <v>0.0005158093753575237</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.49132864631282</v>
+        <v>7.794146</v>
       </c>
       <c r="H5">
-        <v>7.49132864631282</v>
+        <v>15.588292</v>
       </c>
       <c r="I5">
-        <v>0.5861937459359113</v>
+        <v>0.5817234556855728</v>
       </c>
       <c r="J5">
-        <v>0.5861937459359113</v>
+        <v>0.4893463528165691</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.9174069079012</v>
+        <v>1.772676333333334</v>
       </c>
       <c r="N5">
-        <v>23.9174069079012</v>
+        <v>5.318029000000001</v>
       </c>
       <c r="O5">
-        <v>0.3777706836214788</v>
+        <v>0.0264116678245299</v>
       </c>
       <c r="P5">
-        <v>0.3777706836214788</v>
+        <v>0.03027903878070085</v>
       </c>
       <c r="Q5">
-        <v>179.1731555146804</v>
+        <v>13.81649815274467</v>
       </c>
       <c r="R5">
-        <v>179.1731555146804</v>
+        <v>82.89898891646801</v>
       </c>
       <c r="S5">
-        <v>0.2214468121368447</v>
+        <v>0.01536428667730499</v>
       </c>
       <c r="T5">
-        <v>0.2214468121368447</v>
+        <v>0.01481693719412742</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.0722106656667562</v>
+        <v>7.794146</v>
       </c>
       <c r="H6">
-        <v>0.0722106656667562</v>
+        <v>15.588292</v>
       </c>
       <c r="I6">
-        <v>0.005650458363558215</v>
+        <v>0.5817234556855728</v>
       </c>
       <c r="J6">
-        <v>0.005650458363558215</v>
+        <v>0.4893463528165691</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.997386032128483</v>
+        <v>24.7183095</v>
       </c>
       <c r="N6">
-        <v>0.997386032128483</v>
+        <v>49.436619</v>
       </c>
       <c r="O6">
-        <v>0.01575351394248427</v>
+        <v>0.3682859456189059</v>
       </c>
       <c r="P6">
-        <v>0.01575351394248427</v>
+        <v>0.2814752051723923</v>
       </c>
       <c r="Q6">
-        <v>0.07202190930672245</v>
+        <v>192.658113116187</v>
       </c>
       <c r="R6">
-        <v>0.07202190930672245</v>
+        <v>770.632452464748</v>
       </c>
       <c r="S6">
-        <v>8.90145746117412E-05</v>
+        <v>0.2142405729658589</v>
       </c>
       <c r="T6">
-        <v>8.90145746117412E-05</v>
+        <v>0.1377388650594057</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.0722106656667562</v>
+        <v>0.1001386666666667</v>
       </c>
       <c r="H7">
-        <v>0.0722106656667562</v>
+        <v>0.300416</v>
       </c>
       <c r="I7">
-        <v>0.005650458363558215</v>
+        <v>0.007473944062772114</v>
       </c>
       <c r="J7">
-        <v>0.005650458363558215</v>
+        <v>0.009430633832606063</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>36.9720630093316</v>
+        <v>0.9991829999999999</v>
       </c>
       <c r="N7">
-        <v>36.9720630093316</v>
+        <v>1.998366</v>
       </c>
       <c r="O7">
-        <v>0.5839663794538508</v>
+        <v>0.01488714493203248</v>
       </c>
       <c r="P7">
-        <v>0.5839663794538508</v>
+        <v>0.01137801272088475</v>
       </c>
       <c r="Q7">
-        <v>2.669777280977088</v>
+        <v>0.100056853376</v>
       </c>
       <c r="R7">
-        <v>2.669777280977088</v>
+        <v>0.6003411202559999</v>
       </c>
       <c r="S7">
-        <v>0.003299677712821822</v>
+        <v>0.0001112656884763921</v>
       </c>
       <c r="T7">
-        <v>0.003299677712821822</v>
+        <v>0.0001073018717133979</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.0722106656667562</v>
+        <v>0.1001386666666667</v>
       </c>
       <c r="H8">
-        <v>0.0722106656667562</v>
+        <v>0.300416</v>
       </c>
       <c r="I8">
-        <v>0.005650458363558215</v>
+        <v>0.007473944062772114</v>
       </c>
       <c r="J8">
-        <v>0.005650458363558215</v>
+        <v>0.009430633832606063</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.4251159554415</v>
+        <v>39.565288</v>
       </c>
       <c r="N8">
-        <v>1.4251159554415</v>
+        <v>118.695864</v>
       </c>
       <c r="O8">
-        <v>0.02250942298218628</v>
+        <v>0.5894957947979553</v>
       </c>
       <c r="P8">
-        <v>0.02250942298218628</v>
+        <v>0.6758136650185235</v>
       </c>
       <c r="Q8">
-        <v>0.102908571794746</v>
+        <v>3.962015186602667</v>
       </c>
       <c r="R8">
-        <v>0.102908571794746</v>
+        <v>35.658136679424</v>
       </c>
       <c r="S8">
-        <v>0.000127188557348564</v>
+        <v>0.004405858595559306</v>
       </c>
       <c r="T8">
-        <v>0.000127188557348564</v>
+        <v>0.006373351213861188</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,60 +968,60 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.0722106656667562</v>
+        <v>0.1001386666666667</v>
       </c>
       <c r="H9">
-        <v>0.0722106656667562</v>
+        <v>0.300416</v>
       </c>
       <c r="I9">
-        <v>0.005650458363558215</v>
+        <v>0.007473944062772114</v>
       </c>
       <c r="J9">
-        <v>0.005650458363558215</v>
+        <v>0.009430633832606063</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>23.9174069079012</v>
+        <v>0.06171066666666666</v>
       </c>
       <c r="N9">
-        <v>23.9174069079012</v>
+        <v>0.185132</v>
       </c>
       <c r="O9">
-        <v>0.3777706836214788</v>
+        <v>0.0009194468265763251</v>
       </c>
       <c r="P9">
-        <v>0.3777706836214788</v>
+        <v>0.001054078307498645</v>
       </c>
       <c r="Q9">
-        <v>1.727091873842219</v>
+        <v>0.006179623879111111</v>
       </c>
       <c r="R9">
-        <v>1.727091873842219</v>
+        <v>0.055616614912</v>
       </c>
       <c r="S9">
-        <v>0.002134577518776089</v>
+        <v>6.871894150524786E-06</v>
       </c>
       <c r="T9">
-        <v>0.002134577518776089</v>
+        <v>9.940626548912855E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.137184827592976</v>
+        <v>0.1001386666666667</v>
       </c>
       <c r="H10">
-        <v>0.137184827592976</v>
+        <v>0.300416</v>
       </c>
       <c r="I10">
-        <v>0.01073466293751235</v>
+        <v>0.007473944062772114</v>
       </c>
       <c r="J10">
-        <v>0.01073466293751235</v>
+        <v>0.009430633832606063</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.997386032128483</v>
+        <v>1.772676333333334</v>
       </c>
       <c r="N10">
-        <v>0.997386032128483</v>
+        <v>5.318029000000001</v>
       </c>
       <c r="O10">
-        <v>0.01575351394248427</v>
+        <v>0.0264116678245299</v>
       </c>
       <c r="P10">
-        <v>0.01575351394248427</v>
+        <v>0.03027903878070085</v>
       </c>
       <c r="Q10">
-        <v>0.1368262308611884</v>
+        <v>0.1775134444515556</v>
       </c>
       <c r="R10">
-        <v>0.1368262308611884</v>
+        <v>1.597621000064</v>
       </c>
       <c r="S10">
-        <v>0.0001691086622539699</v>
+        <v>0.0001973993279250545</v>
       </c>
       <c r="T10">
-        <v>0.0001691086622539699</v>
+        <v>0.0002855505275440685</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,55 +1092,55 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.137184827592976</v>
+        <v>0.1001386666666667</v>
       </c>
       <c r="H11">
-        <v>0.137184827592976</v>
+        <v>0.300416</v>
       </c>
       <c r="I11">
-        <v>0.01073466293751235</v>
+        <v>0.007473944062772114</v>
       </c>
       <c r="J11">
-        <v>0.01073466293751235</v>
+        <v>0.009430633832606063</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>36.9720630093316</v>
+        <v>24.7183095</v>
       </c>
       <c r="N11">
-        <v>36.9720630093316</v>
+        <v>49.436619</v>
       </c>
       <c r="O11">
-        <v>0.5839663794538508</v>
+        <v>0.3682859456189059</v>
       </c>
       <c r="P11">
-        <v>0.5839663794538508</v>
+        <v>0.2814752051723923</v>
       </c>
       <c r="Q11">
-        <v>5.072006089691802</v>
+        <v>2.475258555584</v>
       </c>
       <c r="R11">
-        <v>5.072006089691802</v>
+        <v>14.851551333504</v>
       </c>
       <c r="S11">
-        <v>0.006268682250276525</v>
+        <v>0.002752548556660835</v>
       </c>
       <c r="T11">
-        <v>0.006268682250276525</v>
+        <v>0.002654489592938496</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,55 +1154,55 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.137184827592976</v>
+        <v>0.2663863333333333</v>
       </c>
       <c r="H12">
-        <v>0.137184827592976</v>
+        <v>0.799159</v>
       </c>
       <c r="I12">
-        <v>0.01073466293751235</v>
+        <v>0.01988199584330029</v>
       </c>
       <c r="J12">
-        <v>0.01073466293751235</v>
+        <v>0.02508713218680639</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.4251159554415</v>
+        <v>0.9991829999999999</v>
       </c>
       <c r="N12">
-        <v>1.4251159554415</v>
+        <v>1.998366</v>
       </c>
       <c r="O12">
-        <v>0.02250942298218628</v>
+        <v>0.01488714493203248</v>
       </c>
       <c r="P12">
-        <v>0.02250942298218628</v>
+        <v>0.01137801272088475</v>
       </c>
       <c r="Q12">
-        <v>0.1955042866472415</v>
+        <v>0.266168695699</v>
       </c>
       <c r="R12">
-        <v>0.1955042866472415</v>
+        <v>1.597012174194</v>
       </c>
       <c r="S12">
-        <v>0.0002416310686316638</v>
+        <v>0.0002959861536572787</v>
       </c>
       <c r="T12">
-        <v>0.0002416310686316638</v>
+        <v>0.0002854417091520004</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,60 +1216,60 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.137184827592976</v>
+        <v>0.2663863333333333</v>
       </c>
       <c r="H13">
-        <v>0.137184827592976</v>
+        <v>0.799159</v>
       </c>
       <c r="I13">
-        <v>0.01073466293751235</v>
+        <v>0.01988199584330029</v>
       </c>
       <c r="J13">
-        <v>0.01073466293751235</v>
+        <v>0.02508713218680639</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>23.9174069079012</v>
+        <v>39.565288</v>
       </c>
       <c r="N13">
-        <v>23.9174069079012</v>
+        <v>118.695864</v>
       </c>
       <c r="O13">
-        <v>0.3777706836214788</v>
+        <v>0.5894957947979553</v>
       </c>
       <c r="P13">
-        <v>0.3777706836214788</v>
+        <v>0.6758136650185235</v>
       </c>
       <c r="Q13">
-        <v>3.281105343131479</v>
+        <v>10.53965199759733</v>
       </c>
       <c r="R13">
-        <v>3.281105343131479</v>
+        <v>94.85686797837599</v>
       </c>
       <c r="S13">
-        <v>0.004055240956350191</v>
+        <v>0.01172035294181595</v>
       </c>
       <c r="T13">
-        <v>0.004055240956350191</v>
+        <v>0.01695422674796979</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,60 +1278,60 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.06474965371916799</v>
+        <v>0.2663863333333333</v>
       </c>
       <c r="H14">
-        <v>0.06474965371916799</v>
+        <v>0.799159</v>
       </c>
       <c r="I14">
-        <v>0.005066636888287341</v>
+        <v>0.01988199584330029</v>
       </c>
       <c r="J14">
-        <v>0.005066636888287341</v>
+        <v>0.02508713218680639</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.997386032128483</v>
+        <v>0.06171066666666666</v>
       </c>
       <c r="N14">
-        <v>0.997386032128483</v>
+        <v>0.185132</v>
       </c>
       <c r="O14">
-        <v>0.01575351394248427</v>
+        <v>0.0009194468265763251</v>
       </c>
       <c r="P14">
-        <v>0.01575351394248427</v>
+        <v>0.001054078307498645</v>
       </c>
       <c r="Q14">
-        <v>0.06458040020465423</v>
+        <v>0.01643887822088889</v>
       </c>
       <c r="R14">
-        <v>0.06458040020465423</v>
+        <v>0.147949903988</v>
       </c>
       <c r="S14">
-        <v>7.981733486113975E-05</v>
+        <v>1.828043798412614E-05</v>
       </c>
       <c r="T14">
-        <v>7.981733486113975E-05</v>
+        <v>2.644380183546365E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,60 +1340,60 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.06474965371916799</v>
+        <v>0.2663863333333333</v>
       </c>
       <c r="H15">
-        <v>0.06474965371916799</v>
+        <v>0.799159</v>
       </c>
       <c r="I15">
-        <v>0.005066636888287341</v>
+        <v>0.01988199584330029</v>
       </c>
       <c r="J15">
-        <v>0.005066636888287341</v>
+        <v>0.02508713218680639</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>36.9720630093316</v>
+        <v>1.772676333333334</v>
       </c>
       <c r="N15">
-        <v>36.9720630093316</v>
+        <v>5.318029000000001</v>
       </c>
       <c r="O15">
-        <v>0.5839663794538508</v>
+        <v>0.0264116678245299</v>
       </c>
       <c r="P15">
-        <v>0.5839663794538508</v>
+        <v>0.03027903878070085</v>
       </c>
       <c r="Q15">
-        <v>2.393928277137481</v>
+        <v>0.4722167486234445</v>
       </c>
       <c r="R15">
-        <v>2.393928277137481</v>
+        <v>4.249950737611001</v>
       </c>
       <c r="S15">
-        <v>0.002958745599660483</v>
+        <v>0.0005251166699019314</v>
       </c>
       <c r="T15">
-        <v>0.002958745599660483</v>
+        <v>0.0007596142483808792</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,55 +1402,55 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.06474965371916799</v>
+        <v>0.2663863333333333</v>
       </c>
       <c r="H16">
-        <v>0.06474965371916799</v>
+        <v>0.799159</v>
       </c>
       <c r="I16">
-        <v>0.005066636888287341</v>
+        <v>0.01988199584330029</v>
       </c>
       <c r="J16">
-        <v>0.005066636888287341</v>
+        <v>0.02508713218680639</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.4251159554415</v>
+        <v>24.7183095</v>
       </c>
       <c r="N16">
-        <v>1.4251159554415</v>
+        <v>49.436619</v>
       </c>
       <c r="O16">
-        <v>0.02250942298218628</v>
+        <v>0.3682859456189059</v>
       </c>
       <c r="P16">
-        <v>0.02250942298218628</v>
+        <v>0.2814752051723923</v>
       </c>
       <c r="Q16">
-        <v>0.09227576462449837</v>
+        <v>6.5846198339035</v>
       </c>
       <c r="R16">
-        <v>0.09227576462449837</v>
+        <v>39.50771900342099</v>
       </c>
       <c r="S16">
-        <v>0.0001140470728156079</v>
+        <v>0.007322259639941003</v>
       </c>
       <c r="T16">
-        <v>0.0001140470728156079</v>
+        <v>0.007061405679468256</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,60 +1464,60 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.06474965371916799</v>
+        <v>0.08767533333333333</v>
       </c>
       <c r="H17">
-        <v>0.06474965371916799</v>
+        <v>0.263026</v>
       </c>
       <c r="I17">
-        <v>0.005066636888287341</v>
+        <v>0.0065437313959799</v>
       </c>
       <c r="J17">
-        <v>0.005066636888287341</v>
+        <v>0.008256890093919904</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>23.9174069079012</v>
+        <v>0.9991829999999999</v>
       </c>
       <c r="N17">
-        <v>23.9174069079012</v>
+        <v>1.998366</v>
       </c>
       <c r="O17">
-        <v>0.3777706836214788</v>
+        <v>0.01488714493203248</v>
       </c>
       <c r="P17">
-        <v>0.3777706836214788</v>
+        <v>0.01137801272088475</v>
       </c>
       <c r="Q17">
-        <v>1.548643815147039</v>
+        <v>0.08760370258599999</v>
       </c>
       <c r="R17">
-        <v>1.548643815147039</v>
+        <v>0.525622215516</v>
       </c>
       <c r="S17">
-        <v>0.00191402688095011</v>
+        <v>9.741747768824397E-05</v>
       </c>
       <c r="T17">
-        <v>0.00191402688095011</v>
+        <v>9.394700052356796E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.46959549959014</v>
+        <v>0.08767533333333333</v>
       </c>
       <c r="H18">
-        <v>4.46959549959014</v>
+        <v>0.263026</v>
       </c>
       <c r="I18">
-        <v>0.3497442246126267</v>
+        <v>0.0065437313959799</v>
       </c>
       <c r="J18">
-        <v>0.3497442246126267</v>
+        <v>0.008256890093919904</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.997386032128483</v>
+        <v>39.565288</v>
       </c>
       <c r="N18">
-        <v>0.997386032128483</v>
+        <v>118.695864</v>
       </c>
       <c r="O18">
-        <v>0.01575351394248427</v>
+        <v>0.5894957947979553</v>
       </c>
       <c r="P18">
-        <v>0.01575351394248427</v>
+        <v>0.6758136650185235</v>
       </c>
       <c r="Q18">
-        <v>4.457912120555534</v>
+        <v>3.468899813829333</v>
       </c>
       <c r="R18">
-        <v>4.457912120555534</v>
+        <v>31.220098324464</v>
       </c>
       <c r="S18">
-        <v>0.005509700518738365</v>
+        <v>0.003857502140217505</v>
       </c>
       <c r="T18">
-        <v>0.005509700518738365</v>
+        <v>0.005580119156027151</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,60 +1588,60 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.46959549959014</v>
+        <v>0.08767533333333333</v>
       </c>
       <c r="H19">
-        <v>4.46959549959014</v>
+        <v>0.263026</v>
       </c>
       <c r="I19">
-        <v>0.3497442246126267</v>
+        <v>0.0065437313959799</v>
       </c>
       <c r="J19">
-        <v>0.3497442246126267</v>
+        <v>0.008256890093919904</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>36.9720630093316</v>
+        <v>0.06171066666666666</v>
       </c>
       <c r="N19">
-        <v>36.9720630093316</v>
+        <v>0.185132</v>
       </c>
       <c r="O19">
-        <v>0.5839663794538508</v>
+        <v>0.0009194468265763251</v>
       </c>
       <c r="P19">
-        <v>0.5839663794538508</v>
+        <v>0.001054078307498645</v>
       </c>
       <c r="Q19">
-        <v>165.2501664370716</v>
+        <v>0.005410503270222222</v>
       </c>
       <c r="R19">
-        <v>165.2501664370716</v>
+        <v>0.04869452943199999</v>
       </c>
       <c r="S19">
-        <v>0.20423886858193</v>
+        <v>6.016613066001585E-06</v>
       </c>
       <c r="T19">
-        <v>0.20423886858193</v>
+        <v>8.703408735401417E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1653,57 +1653,57 @@
         <v>24</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.46959549959014</v>
+        <v>0.08767533333333333</v>
       </c>
       <c r="H20">
-        <v>4.46959549959014</v>
+        <v>0.263026</v>
       </c>
       <c r="I20">
-        <v>0.3497442246126267</v>
+        <v>0.0065437313959799</v>
       </c>
       <c r="J20">
-        <v>0.3497442246126267</v>
+        <v>0.008256890093919904</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.4251159554415</v>
+        <v>1.772676333333334</v>
       </c>
       <c r="N20">
-        <v>1.4251159554415</v>
+        <v>5.318029000000001</v>
       </c>
       <c r="O20">
-        <v>0.02250942298218628</v>
+        <v>0.0264116678245299</v>
       </c>
       <c r="P20">
-        <v>0.02250942298218628</v>
+        <v>0.03027903878070085</v>
       </c>
       <c r="Q20">
-        <v>6.369691860835431</v>
+        <v>0.1554199884171111</v>
       </c>
       <c r="R20">
-        <v>6.369691860835431</v>
+        <v>1.398779895754</v>
       </c>
       <c r="S20">
-        <v>0.007872540687382381</v>
+        <v>0.0001728308599635684</v>
       </c>
       <c r="T20">
-        <v>0.007872540687382381</v>
+        <v>0.0002500106953617855</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1715,57 +1715,57 @@
         <v>25</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.46959549959014</v>
+        <v>0.08767533333333333</v>
       </c>
       <c r="H21">
-        <v>4.46959549959014</v>
+        <v>0.263026</v>
       </c>
       <c r="I21">
-        <v>0.3497442246126267</v>
+        <v>0.0065437313959799</v>
       </c>
       <c r="J21">
-        <v>0.3497442246126267</v>
+        <v>0.008256890093919904</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>23.9174069079012</v>
+        <v>24.7183095</v>
       </c>
       <c r="N21">
-        <v>23.9174069079012</v>
+        <v>49.436619</v>
       </c>
       <c r="O21">
-        <v>0.3777706836214788</v>
+        <v>0.3682859456189059</v>
       </c>
       <c r="P21">
-        <v>0.3777706836214788</v>
+        <v>0.2814752051723923</v>
       </c>
       <c r="Q21">
-        <v>106.9011342774213</v>
+        <v>2.167186024849</v>
       </c>
       <c r="R21">
-        <v>106.9011342774213</v>
+        <v>13.003116149094</v>
       </c>
       <c r="S21">
-        <v>0.132123114824576</v>
+        <v>0.002409964305044581</v>
       </c>
       <c r="T21">
-        <v>0.132123114824576</v>
+        <v>0.002324109833271999</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1777,57 +1777,57 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.544542735138391</v>
+        <v>4.604394999999999</v>
       </c>
       <c r="H22">
-        <v>0.544542735138391</v>
+        <v>13.813185</v>
       </c>
       <c r="I22">
-        <v>0.04261027126210409</v>
+        <v>0.3436533740503928</v>
       </c>
       <c r="J22">
-        <v>0.04261027126210409</v>
+        <v>0.433622343007851</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.997386032128483</v>
+        <v>0.9991829999999999</v>
       </c>
       <c r="N22">
-        <v>0.997386032128483</v>
+        <v>1.998366</v>
       </c>
       <c r="O22">
-        <v>0.01575351394248427</v>
+        <v>0.01488714493203248</v>
       </c>
       <c r="P22">
-        <v>0.01575351394248427</v>
+        <v>0.01137801272088475</v>
       </c>
       <c r="Q22">
-        <v>0.5431193179240713</v>
+        <v>4.600633209284999</v>
       </c>
       <c r="R22">
-        <v>0.5431193179240713</v>
+        <v>27.60379925571</v>
       </c>
       <c r="S22">
-        <v>0.0006712615024205936</v>
+        <v>0.005116017585870166</v>
       </c>
       <c r="T22">
-        <v>0.0006712615024205936</v>
+        <v>0.00493376053480318</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1839,57 +1839,57 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.544542735138391</v>
+        <v>4.604394999999999</v>
       </c>
       <c r="H23">
-        <v>0.544542735138391</v>
+        <v>13.813185</v>
       </c>
       <c r="I23">
-        <v>0.04261027126210409</v>
+        <v>0.3436533740503928</v>
       </c>
       <c r="J23">
-        <v>0.04261027126210409</v>
+        <v>0.433622343007851</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>36.9720630093316</v>
+        <v>39.565288</v>
       </c>
       <c r="N23">
-        <v>36.9720630093316</v>
+        <v>118.695864</v>
       </c>
       <c r="O23">
-        <v>0.5839663794538508</v>
+        <v>0.5894957947979553</v>
       </c>
       <c r="P23">
-        <v>0.5839663794538508</v>
+        <v>0.6758136650185235</v>
       </c>
       <c r="Q23">
-        <v>20.13286831481036</v>
+        <v>182.17421424076</v>
       </c>
       <c r="R23">
-        <v>20.13286831481036</v>
+        <v>1639.56792816684</v>
       </c>
       <c r="S23">
-        <v>0.02488296583647739</v>
+        <v>0.2025822188708354</v>
       </c>
       <c r="T23">
-        <v>0.02488296583647739</v>
+        <v>0.2930479048620551</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1898,117 +1898,489 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.544542735138391</v>
+        <v>4.604394999999999</v>
       </c>
       <c r="H24">
-        <v>0.544542735138391</v>
+        <v>13.813185</v>
       </c>
       <c r="I24">
-        <v>0.04261027126210409</v>
+        <v>0.3436533740503928</v>
       </c>
       <c r="J24">
-        <v>0.04261027126210409</v>
+        <v>0.433622343007851</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>1.4251159554415</v>
+        <v>0.06171066666666666</v>
       </c>
       <c r="N24">
-        <v>1.4251159554415</v>
+        <v>0.185132</v>
       </c>
       <c r="O24">
-        <v>0.02250942298218628</v>
+        <v>0.0009194468265763251</v>
       </c>
       <c r="P24">
-        <v>0.02250942298218628</v>
+        <v>0.001054078307498645</v>
       </c>
       <c r="Q24">
-        <v>0.7760365402654759</v>
+        <v>0.2841402850466666</v>
       </c>
       <c r="R24">
-        <v>0.7760365402654759</v>
+        <v>2.55726256542</v>
       </c>
       <c r="S24">
-        <v>0.0009591326192243975</v>
+        <v>0.0003159710042128805</v>
       </c>
       <c r="T24">
-        <v>0.0009591326192243975</v>
+        <v>0.0004570719054113123</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>4.604394999999999</v>
+      </c>
+      <c r="H25">
+        <v>13.813185</v>
+      </c>
+      <c r="I25">
+        <v>0.3436533740503928</v>
+      </c>
+      <c r="J25">
+        <v>0.433622343007851</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.772676333333334</v>
+      </c>
+      <c r="N25">
+        <v>5.318029000000001</v>
+      </c>
+      <c r="O25">
+        <v>0.0264116678245299</v>
+      </c>
+      <c r="P25">
+        <v>0.03027903878070085</v>
+      </c>
+      <c r="Q25">
+        <v>8.162102045818335</v>
+      </c>
+      <c r="R25">
+        <v>73.45891841236501</v>
+      </c>
+      <c r="S25">
+        <v>0.009076458762197898</v>
+      </c>
+      <c r="T25">
+        <v>0.01312966774011309</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>4.604394999999999</v>
+      </c>
+      <c r="H26">
+        <v>13.813185</v>
+      </c>
+      <c r="I26">
+        <v>0.3436533740503928</v>
+      </c>
+      <c r="J26">
+        <v>0.433622343007851</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>24.7183095</v>
+      </c>
+      <c r="N26">
+        <v>49.436619</v>
+      </c>
+      <c r="O26">
+        <v>0.3682859456189059</v>
+      </c>
+      <c r="P26">
+        <v>0.2814752051723923</v>
+      </c>
+      <c r="Q26">
+        <v>113.8128606702525</v>
+      </c>
+      <c r="R26">
+        <v>682.877164021515</v>
+      </c>
+      <c r="S26">
+        <v>0.1265627078272765</v>
+      </c>
+      <c r="T26">
+        <v>0.1220539379654683</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.544542735138391</v>
-      </c>
-      <c r="H25">
-        <v>0.544542735138391</v>
-      </c>
-      <c r="I25">
-        <v>0.04261027126210409</v>
-      </c>
-      <c r="J25">
-        <v>0.04261027126210409</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>23.9174069079012</v>
-      </c>
-      <c r="N25">
-        <v>23.9174069079012</v>
-      </c>
-      <c r="O25">
-        <v>0.3777706836214788</v>
-      </c>
-      <c r="P25">
-        <v>0.3777706836214788</v>
-      </c>
-      <c r="Q25">
-        <v>13.02405017504637</v>
-      </c>
-      <c r="R25">
-        <v>13.02405017504637</v>
-      </c>
-      <c r="S25">
-        <v>0.01609691130398171</v>
-      </c>
-      <c r="T25">
-        <v>0.01609691130398171</v>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.5456285000000001</v>
+      </c>
+      <c r="H27">
+        <v>1.091257</v>
+      </c>
+      <c r="I27">
+        <v>0.04072349896198194</v>
+      </c>
+      <c r="J27">
+        <v>0.03425664806224767</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.9991829999999999</v>
+      </c>
+      <c r="N27">
+        <v>1.998366</v>
+      </c>
+      <c r="O27">
+        <v>0.01488714493203248</v>
+      </c>
+      <c r="P27">
+        <v>0.01137801272088475</v>
+      </c>
+      <c r="Q27">
+        <v>0.5451827215155001</v>
+      </c>
+      <c r="R27">
+        <v>2.180730886062</v>
+      </c>
+      <c r="S27">
+        <v>0.0006062566311864992</v>
+      </c>
+      <c r="T27">
+        <v>0.000389772577427126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.5456285000000001</v>
+      </c>
+      <c r="H28">
+        <v>1.091257</v>
+      </c>
+      <c r="I28">
+        <v>0.04072349896198194</v>
+      </c>
+      <c r="J28">
+        <v>0.03425664806224767</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>39.565288</v>
+      </c>
+      <c r="N28">
+        <v>118.695864</v>
+      </c>
+      <c r="O28">
+        <v>0.5894957947979553</v>
+      </c>
+      <c r="P28">
+        <v>0.6758136650185235</v>
+      </c>
+      <c r="Q28">
+        <v>21.587948743508</v>
+      </c>
+      <c r="R28">
+        <v>129.527692461048</v>
+      </c>
+      <c r="S28">
+        <v>0.02400633138754725</v>
+      </c>
+      <c r="T28">
+        <v>0.0231511108781973</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.5456285000000001</v>
+      </c>
+      <c r="H29">
+        <v>1.091257</v>
+      </c>
+      <c r="I29">
+        <v>0.04072349896198194</v>
+      </c>
+      <c r="J29">
+        <v>0.03425664806224767</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>0.06171066666666666</v>
+      </c>
+      <c r="N29">
+        <v>0.185132</v>
+      </c>
+      <c r="O29">
+        <v>0.0009194468265763251</v>
+      </c>
+      <c r="P29">
+        <v>0.001054078307498645</v>
+      </c>
+      <c r="Q29">
+        <v>0.03367109848733334</v>
+      </c>
+      <c r="R29">
+        <v>0.202026590924</v>
+      </c>
+      <c r="S29">
+        <v>3.744309188767856E-05</v>
+      </c>
+      <c r="T29">
+        <v>3.610918961003074E-05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.5456285000000001</v>
+      </c>
+      <c r="H30">
+        <v>1.091257</v>
+      </c>
+      <c r="I30">
+        <v>0.04072349896198194</v>
+      </c>
+      <c r="J30">
+        <v>0.03425664806224767</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1.772676333333334</v>
+      </c>
+      <c r="N30">
+        <v>5.318029000000001</v>
+      </c>
+      <c r="O30">
+        <v>0.0264116678245299</v>
+      </c>
+      <c r="P30">
+        <v>0.03027903878070085</v>
+      </c>
+      <c r="Q30">
+        <v>0.967222728742167</v>
+      </c>
+      <c r="R30">
+        <v>5.803336372453002</v>
+      </c>
+      <c r="S30">
+        <v>0.001075575527236455</v>
+      </c>
+      <c r="T30">
+        <v>0.001037258375173618</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.5456285000000001</v>
+      </c>
+      <c r="H31">
+        <v>1.091257</v>
+      </c>
+      <c r="I31">
+        <v>0.04072349896198194</v>
+      </c>
+      <c r="J31">
+        <v>0.03425664806224767</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>24.7183095</v>
+      </c>
+      <c r="N31">
+        <v>49.436619</v>
+      </c>
+      <c r="O31">
+        <v>0.3682859456189059</v>
+      </c>
+      <c r="P31">
+        <v>0.2814752051723923</v>
+      </c>
+      <c r="Q31">
+        <v>13.48701413502075</v>
+      </c>
+      <c r="R31">
+        <v>53.94805654008301</v>
+      </c>
+      <c r="S31">
+        <v>0.01499789232412405</v>
+      </c>
+      <c r="T31">
+        <v>0.009642397041839598</v>
       </c>
     </row>
   </sheetData>
